--- a/ConfigData/Xlsx/DungeonStory.xlsx
+++ b/ConfigData/Xlsx/DungeonStory.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TOMClassic\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -131,13 +131,29 @@
   </si>
   <si>
     <t>所有的敌人等级+1|所有的怪死亡</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventReplace</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossqiongqi=bossunicorn</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -335,7 +351,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -537,6 +553,18 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
@@ -804,7 +832,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -845,6 +873,15 @@
       <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -892,7 +929,7 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
     <dxf>
       <font>
         <b val="0"/>
@@ -911,16 +948,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -959,6 +986,35 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1176,17 +1232,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A3:H5" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
-  <autoFilter ref="A3:H5"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Id" dataDxfId="7"/>
-    <tableColumn id="2" name="Name" dataDxfId="6"/>
-    <tableColumn id="3" name="Descript" dataDxfId="5"/>
-    <tableColumn id="24" name="RuleStr" dataDxfId="0"/>
-    <tableColumn id="6" name="Rate" dataDxfId="4"/>
-    <tableColumn id="9" name="DungeonId" dataDxfId="3"/>
-    <tableColumn id="16" name="NeedGismoId" dataDxfId="2"/>
-    <tableColumn id="4" name="Image" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表3" displayName="表3" ref="A3:I5" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
+  <autoFilter ref="A3:I5" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Descript" dataDxfId="6"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="RuleStr" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Rate" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="DungeonId" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="NeedGismoId" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{A347D9D0-C79A-41A5-91ED-B8BDE1173C73}" name="EventReplace" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Image" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1512,11 +1569,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1527,11 +1584,12 @@
     <col min="5" max="5" width="5.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="8" max="8" width="26.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1553,11 +1611,14 @@
       <c r="G1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1579,11 +1640,14 @@
       <c r="G2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1605,11 +1669,14 @@
       <c r="G3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>47000001</v>
       </c>
@@ -1627,11 +1694,12 @@
         <v>18000001</v>
       </c>
       <c r="G4" s="10"/>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>47000002</v>
       </c>
@@ -1654,6 +1722,9 @@
         <v>45000001</v>
       </c>
       <c r="H5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>24</v>
       </c>
     </row>

--- a/ConfigData/Xlsx/DungeonStory.xlsx
+++ b/ConfigData/Xlsx/DungeonStory.xlsx
@@ -130,10 +130,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>所有的敌人等级+1|所有的怪死亡</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>替换</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -146,7 +142,11 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>bossqiongqi=bossunicorn</t>
+    <t>bossqiongqi=bossunicorn,manflower=wolfnest</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>会出现一些狼群|所有的怪死亡</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1612,7 +1612,7 @@
         <v>18</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>22</v>
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>3</v>
@@ -1670,7 +1670,7 @@
         <v>19</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>17</v>
@@ -1710,7 +1710,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E5" s="8">
         <v>50</v>
@@ -1722,7 +1722,7 @@
         <v>45000001</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>24</v>

--- a/ConfigData/Xlsx/DungeonStory.xlsx
+++ b/ConfigData/Xlsx/DungeonStory.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -104,10 +104,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>找到传说中的神兽【独角兽】，并击败它</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>背景图</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -146,7 +142,39 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>会出现一些狼群|所有的怪死亡</t>
+    <t>主鉴定</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>主鉴定修正</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>intl</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttrType</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttrBias</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外卡牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardId</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>会出现一些狼群|智慧属性下降1点|额外获得一张卡牌【侏儒】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过【侏儒】的引导，找到传说中的神兽【独角兽】</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -351,7 +379,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -567,8 +595,20 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -703,6 +743,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -832,7 +881,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -883,6 +932,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -929,7 +987,92 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1232,18 +1375,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表3" displayName="表3" ref="A3:I5" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
-  <autoFilter ref="A3:I5" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Descript" dataDxfId="6"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="RuleStr" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Rate" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="DungeonId" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="NeedGismoId" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{A347D9D0-C79A-41A5-91ED-B8BDE1173C73}" name="EventReplace" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Image" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表3" displayName="表3" ref="A3:L5" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A3:L5" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Descript" dataDxfId="13"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="RuleStr" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Rate" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="DungeonId" dataDxfId="10"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="NeedGismoId" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{A347D9D0-C79A-41A5-91ED-B8BDE1173C73}" name="EventReplace" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{B2A337FE-0C24-4460-B3AD-B636612A7844}" name="AttrType" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{E0489051-D594-4CA6-BFC1-454DA9F2CB87}" name="AttrBias" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{F9CC78E4-7B84-4315-B48E-4BDEC60226B0}" name="CardId" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Image" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1570,10 +1716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1585,11 +1731,13 @@
     <col min="6" max="6" width="9.5" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.125" style="3" customWidth="1"/>
     <col min="8" max="8" width="26.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="3"/>
+    <col min="9" max="10" width="5.875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1600,7 +1748,7 @@
         <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>12</v>
@@ -1612,13 +1760,22 @@
         <v>18</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1629,7 +1786,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>11</v>
@@ -1641,13 +1798,22 @@
         <v>0</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>3</v>
       </c>
+      <c r="J2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1658,7 +1824,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>13</v>
@@ -1670,13 +1836,22 @@
         <v>19</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>47000001</v>
       </c>
@@ -1695,11 +1870,14 @@
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
-      <c r="I4" s="10" t="s">
-        <v>23</v>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>47000002</v>
       </c>
@@ -1707,13 +1885,13 @@
         <v>20</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E5" s="8">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F5" s="8">
         <v>18000001</v>
@@ -1722,14 +1900,33 @@
         <v>45000001</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="J5" s="10">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="10">
+        <v>51000046</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
+  <conditionalFormatting sqref="G4:J5 L4:L5">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(G4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:K5">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(K4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/ConfigData/Xlsx/DungeonStory.xlsx
+++ b/ConfigData/Xlsx/DungeonStory.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -175,13 +175,21 @@
   </si>
   <si>
     <t>通过【侏儒】的引导，找到传说中的神兽【独角兽】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外祝福</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlessId</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1029,11 +1037,23 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1363,6 +1383,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1375,21 +1463,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表3" displayName="表3" ref="A3:L5" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A3:L5" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Descript" dataDxfId="13"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="RuleStr" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Rate" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="DungeonId" dataDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="NeedGismoId" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{A347D9D0-C79A-41A5-91ED-B8BDE1173C73}" name="EventReplace" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{B2A337FE-0C24-4460-B3AD-B636612A7844}" name="AttrType" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{E0489051-D594-4CA6-BFC1-454DA9F2CB87}" name="AttrBias" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{F9CC78E4-7B84-4315-B48E-4BDEC60226B0}" name="CardId" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Image" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A3:M5" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A3:M5"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="Id" dataDxfId="15"/>
+    <tableColumn id="2" name="Name" dataDxfId="14"/>
+    <tableColumn id="3" name="Descript" dataDxfId="13"/>
+    <tableColumn id="24" name="RuleStr" dataDxfId="12"/>
+    <tableColumn id="6" name="Rate" dataDxfId="11"/>
+    <tableColumn id="9" name="DungeonId" dataDxfId="10"/>
+    <tableColumn id="16" name="NeedGismoId" dataDxfId="9"/>
+    <tableColumn id="5" name="EventReplace" dataDxfId="8"/>
+    <tableColumn id="8" name="AttrType" dataDxfId="7"/>
+    <tableColumn id="7" name="AttrBias" dataDxfId="6"/>
+    <tableColumn id="10" name="CardId" dataDxfId="5"/>
+    <tableColumn id="11" name="BlessId" dataDxfId="0"/>
+    <tableColumn id="4" name="Image" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1403,7 +1492,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1715,11 +1804,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1732,12 +1821,12 @@
     <col min="7" max="7" width="9.125" style="3" customWidth="1"/>
     <col min="8" max="8" width="26.125" style="3" customWidth="1"/>
     <col min="9" max="10" width="5.875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9.625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="3"/>
+    <col min="11" max="12" width="9.625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1771,11 +1860,14 @@
       <c r="K1" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1809,11 +1901,14 @@
       <c r="K2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1847,11 +1942,14 @@
       <c r="K3" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>47000001</v>
       </c>
@@ -1873,11 +1971,12 @@
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="10"/>
+      <c r="M4" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>47000002</v>
       </c>
@@ -1911,20 +2010,26 @@
       <c r="K5" s="10">
         <v>51000046</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="10"/>
+      <c r="M5" s="10" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="G4:J5 L4:L5">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+  <conditionalFormatting sqref="G4:J5 M4:M5">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(G4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K5">
+    <cfRule type="containsBlanks" dxfId="2" priority="2">
+      <formula>LEN(TRIM(K4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L5">
     <cfRule type="containsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(K4))=0</formula>
+      <formula>LEN(TRIM(L4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ConfigData/Xlsx/DungeonStory.xlsx
+++ b/ConfigData/Xlsx/DungeonStory.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -183,6 +183,26 @@
   </si>
   <si>
     <t>BlessId</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lost</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到迷宫出口</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>充满了很多机关|找到出口异常艰辛</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossqiongqi=bossunicorn,trees=rosemaryfield,river=poppyfield,manflower=trapspring,cliff=trappoison</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>lost</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1014,27 +1034,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1381,6 +1380,27 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1463,22 +1483,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A3:M5" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A3:M5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A3:M6" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
+  <autoFilter ref="A3:M6"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Id" dataDxfId="15"/>
-    <tableColumn id="2" name="Name" dataDxfId="14"/>
-    <tableColumn id="3" name="Descript" dataDxfId="13"/>
-    <tableColumn id="24" name="RuleStr" dataDxfId="12"/>
-    <tableColumn id="6" name="Rate" dataDxfId="11"/>
-    <tableColumn id="9" name="DungeonId" dataDxfId="10"/>
-    <tableColumn id="16" name="NeedGismoId" dataDxfId="9"/>
-    <tableColumn id="5" name="EventReplace" dataDxfId="8"/>
-    <tableColumn id="8" name="AttrType" dataDxfId="7"/>
-    <tableColumn id="7" name="AttrBias" dataDxfId="6"/>
-    <tableColumn id="10" name="CardId" dataDxfId="5"/>
-    <tableColumn id="11" name="BlessId" dataDxfId="0"/>
-    <tableColumn id="4" name="Image" dataDxfId="4"/>
+    <tableColumn id="1" name="Id" dataDxfId="12"/>
+    <tableColumn id="2" name="Name" dataDxfId="11"/>
+    <tableColumn id="3" name="Descript" dataDxfId="10"/>
+    <tableColumn id="24" name="RuleStr" dataDxfId="9"/>
+    <tableColumn id="6" name="Rate" dataDxfId="8"/>
+    <tableColumn id="9" name="DungeonId" dataDxfId="7"/>
+    <tableColumn id="16" name="NeedGismoId" dataDxfId="6"/>
+    <tableColumn id="5" name="EventReplace" dataDxfId="5"/>
+    <tableColumn id="8" name="AttrType" dataDxfId="4"/>
+    <tableColumn id="7" name="AttrBias" dataDxfId="3"/>
+    <tableColumn id="10" name="CardId" dataDxfId="2"/>
+    <tableColumn id="11" name="BlessId" dataDxfId="1"/>
+    <tableColumn id="4" name="Image" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1805,10 +1825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2015,20 +2035,53 @@
         <v>23</v>
       </c>
     </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>47000003</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="8">
+        <v>300</v>
+      </c>
+      <c r="F6" s="8">
+        <v>18000001</v>
+      </c>
+      <c r="G6" s="10">
+        <v>45000001</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="G4:J5 M4:M5">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
+  <conditionalFormatting sqref="G4:J6 M4:M6">
+    <cfRule type="containsBlanks" dxfId="18" priority="4">
       <formula>LEN(TRIM(G4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K5">
-    <cfRule type="containsBlanks" dxfId="2" priority="2">
+  <conditionalFormatting sqref="K4:K6">
+    <cfRule type="containsBlanks" dxfId="17" priority="2">
       <formula>LEN(TRIM(K4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L5">
-    <cfRule type="containsBlanks" dxfId="1" priority="1">
+  <conditionalFormatting sqref="L4:L6">
+    <cfRule type="containsBlanks" dxfId="16" priority="1">
       <formula>LEN(TRIM(L4))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConfigData/Xlsx/DungeonStory.xlsx
+++ b/ConfigData/Xlsx/DungeonStory.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TOMClassic\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -96,113 +96,121 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>独角兽</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景图</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>qiongqi</t>
+  </si>
+  <si>
+    <t>unicorn</t>
+  </si>
+  <si>
+    <t>规则说明</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuleStr</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventReplace</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossqiongqi=bossunicorn,manflower=wolfnest</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>主鉴定</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>主鉴定修正</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>intl</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttrType</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttrBias</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外卡牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardId</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>会出现一些狼群|智慧属性下降1点|额外获得一张卡牌【侏儒】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过【侏儒】的引导，找到传说中的神兽【独角兽】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外祝福</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlessId</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lost</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到迷宫出口</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>充满了很多机关|找到出口异常艰辛</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>lost</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossqiongqi=forestexit,trees=rosemaryfield,river=poppyfield,manflower=trapspring,cliff=trappoison</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedLevel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>先决：level</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>NeedGismoId</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>独角兽</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景图</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>qiongqi</t>
-  </si>
-  <si>
-    <t>unicorn</t>
-  </si>
-  <si>
-    <t>规则说明</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>RuleStr</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>替换</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventReplace</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossqiongqi=bossunicorn,manflower=wolfnest</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>主鉴定</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>主鉴定修正</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>intl</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttrType</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttrBias</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外卡牌</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardId</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>会出现一些狼群|智慧属性下降1点|额外获得一张卡牌【侏儒】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过【侏儒】的引导，找到传说中的神兽【独角兽】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外祝福</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlessId</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lost</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>找到迷宫出口</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>充满了很多机关|找到出口异常艰辛</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossqiongqi=bossunicorn,trees=rosemaryfield,river=poppyfield,manflower=trapspring,cliff=trappoison</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>lost</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1015,7 +1023,26 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1401,76 +1428,15 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1483,15 +1449,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A3:M6" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
-  <autoFilter ref="A3:M6"/>
-  <tableColumns count="13">
-    <tableColumn id="1" name="Id" dataDxfId="12"/>
-    <tableColumn id="2" name="Name" dataDxfId="11"/>
-    <tableColumn id="3" name="Descript" dataDxfId="10"/>
-    <tableColumn id="24" name="RuleStr" dataDxfId="9"/>
-    <tableColumn id="6" name="Rate" dataDxfId="8"/>
-    <tableColumn id="9" name="DungeonId" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A3:N6" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
+  <autoFilter ref="A3:N6"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="Id" dataDxfId="13"/>
+    <tableColumn id="2" name="Name" dataDxfId="12"/>
+    <tableColumn id="3" name="Descript" dataDxfId="11"/>
+    <tableColumn id="24" name="RuleStr" dataDxfId="10"/>
+    <tableColumn id="6" name="Rate" dataDxfId="9"/>
+    <tableColumn id="9" name="DungeonId" dataDxfId="8"/>
+    <tableColumn id="12" name="NeedLevel" dataDxfId="7"/>
     <tableColumn id="16" name="NeedGismoId" dataDxfId="6"/>
     <tableColumn id="5" name="EventReplace" dataDxfId="5"/>
     <tableColumn id="8" name="AttrType" dataDxfId="4"/>
@@ -1512,7 +1479,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1825,10 +1792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1838,15 +1805,16 @@
     <col min="3" max="4" width="26.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="5.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="26.125" style="3" customWidth="1"/>
-    <col min="9" max="10" width="5.875" style="3" customWidth="1"/>
-    <col min="11" max="12" width="9.625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="3"/>
+    <col min="7" max="7" width="5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="26.125" style="3" customWidth="1"/>
+    <col min="10" max="11" width="5.875" style="3" customWidth="1"/>
+    <col min="12" max="13" width="9.625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1857,7 +1825,7 @@
         <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>12</v>
@@ -1866,28 +1834,31 @@
         <v>6</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>36</v>
-      </c>
       <c r="L1" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1898,7 +1869,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>11</v>
@@ -1909,14 +1880,14 @@
       <c r="G2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="17" t="s">
         <v>3</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>0</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>0</v>
@@ -1924,11 +1895,14 @@
       <c r="L2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1939,7 +1913,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>13</v>
@@ -1948,28 +1922,31 @@
         <v>7</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>37</v>
-      </c>
       <c r="L3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>47000001</v>
       </c>
@@ -1992,97 +1969,105 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="10" t="s">
-        <v>22</v>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>47000002</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="8">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F5" s="8">
         <v>18000001</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10">
         <v>45000001</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="I5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="10">
+        <v>29</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="10">
         <v>-1</v>
       </c>
-      <c r="K5" s="10">
+      <c r="L5" s="10">
         <v>51000046</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10" t="s">
-        <v>23</v>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>47000003</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="E6" s="8">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="F6" s="8">
         <v>18000001</v>
       </c>
       <c r="G6" s="10">
-        <v>45000001</v>
-      </c>
-      <c r="H6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
-      <c r="M6" s="10" t="s">
-        <v>46</v>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="G4:J6 M4:M6">
-    <cfRule type="containsBlanks" dxfId="18" priority="4">
-      <formula>LEN(TRIM(G4))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K6">
-    <cfRule type="containsBlanks" dxfId="17" priority="2">
-      <formula>LEN(TRIM(K4))=0</formula>
+  <conditionalFormatting sqref="H4:K6 N4:N6">
+    <cfRule type="containsBlanks" dxfId="20" priority="5">
+      <formula>LEN(TRIM(H4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L6">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="19" priority="3">
       <formula>LEN(TRIM(L4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:M6">
+    <cfRule type="containsBlanks" dxfId="18" priority="2">
+      <formula>LEN(TRIM(M4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G6">
+    <cfRule type="containsBlanks" dxfId="17" priority="1">
+      <formula>LEN(TRIM(G4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ConfigData/Xlsx/DungeonStory.xlsx
+++ b/ConfigData/Xlsx/DungeonStory.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TOMClassic\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>找到传说中的神兽【穷奇】，并击败它</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Image</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -110,7 +106,7 @@
     <t>unicorn</t>
   </si>
   <si>
-    <t>规则说明</t>
+    <t>替换</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -118,18 +114,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>RuleStr</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>替换</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>EventReplace</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -166,14 +150,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>会出现一些狼群|智慧属性下降1点|额外获得一张卡牌【侏儒】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过【侏儒】的引导，找到传说中的神兽【独角兽】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>额外祝福</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -186,14 +162,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>找到迷宫出口</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>充满了很多机关|找到出口异常艰辛</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>lost</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -211,6 +179,18 @@
   </si>
   <si>
     <t>NeedGismoId</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到传说中的神兽【穷奇】，并击败它找到传说中的神兽【穷奇】，并击败它找到传说中的神兽【穷奇】，并击败它找到传说中的神兽【穷奇】，并击败它找到传说中的神兽【穷奇】，并击败它\n会出现一些狼群\nGreen|智慧属性下降1点\n额外获得一张卡牌【侏儒】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过【侏儒】的引导，找到传说中的神兽【独角兽】\nLime|会出现一些狼群\nLime|智慧属性下降1点\nLime|额外获得一张卡牌【侏儒】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到迷宫出口\nLime|充满了很多机关\nLime|找到出口异常艰辛</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1023,7 +1003,35 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1322,35 +1330,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="4"/>
@@ -1407,36 +1386,76 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1449,23 +1468,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A3:N6" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
-  <autoFilter ref="A3:N6"/>
-  <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="13"/>
-    <tableColumn id="2" name="Name" dataDxfId="12"/>
-    <tableColumn id="3" name="Descript" dataDxfId="11"/>
-    <tableColumn id="24" name="RuleStr" dataDxfId="10"/>
-    <tableColumn id="6" name="Rate" dataDxfId="9"/>
-    <tableColumn id="9" name="DungeonId" dataDxfId="8"/>
-    <tableColumn id="12" name="NeedLevel" dataDxfId="7"/>
-    <tableColumn id="16" name="NeedGismoId" dataDxfId="6"/>
-    <tableColumn id="5" name="EventReplace" dataDxfId="5"/>
-    <tableColumn id="8" name="AttrType" dataDxfId="4"/>
-    <tableColumn id="7" name="AttrBias" dataDxfId="3"/>
-    <tableColumn id="10" name="CardId" dataDxfId="2"/>
-    <tableColumn id="11" name="BlessId" dataDxfId="1"/>
-    <tableColumn id="4" name="Image" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A3:M6" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
+  <autoFilter ref="A3:M6"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="Id" dataDxfId="16"/>
+    <tableColumn id="2" name="Name" dataDxfId="15"/>
+    <tableColumn id="3" name="Descript" dataDxfId="14"/>
+    <tableColumn id="6" name="Rate" dataDxfId="13"/>
+    <tableColumn id="9" name="DungeonId" dataDxfId="12"/>
+    <tableColumn id="12" name="NeedLevel" dataDxfId="11"/>
+    <tableColumn id="16" name="NeedGismoId" dataDxfId="10"/>
+    <tableColumn id="5" name="EventReplace" dataDxfId="9"/>
+    <tableColumn id="8" name="AttrType" dataDxfId="8"/>
+    <tableColumn id="7" name="AttrBias" dataDxfId="7"/>
+    <tableColumn id="10" name="CardId" dataDxfId="6"/>
+    <tableColumn id="11" name="BlessId" dataDxfId="5"/>
+    <tableColumn id="4" name="Image" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1479,7 +1497,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1792,29 +1810,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="4" width="26.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="26.125" style="3" customWidth="1"/>
-    <col min="10" max="11" width="5.875" style="3" customWidth="1"/>
-    <col min="12" max="13" width="9.625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="3"/>
+    <col min="3" max="3" width="26.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="5.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="26.125" style="3" customWidth="1"/>
+    <col min="9" max="10" width="5.875" style="3" customWidth="1"/>
+    <col min="11" max="12" width="9.625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1825,40 +1843,37 @@
         <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="F1" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="G1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>26</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K1" s="19" t="s">
         <v>31</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1869,25 +1884,25 @@
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="5" t="s">
         <v>4</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>0</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="17" t="s">
         <v>0</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>3</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>0</v>
@@ -1895,14 +1910,11 @@
       <c r="L2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1913,40 +1925,37 @@
         <v>10</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
+      <c r="F3" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="G3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>28</v>
+        <v>40</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>17</v>
+      <c r="M3" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>47000001</v>
       </c>
@@ -1954,120 +1963,113 @@
         <v>14</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="D4" s="8">
+        <v>100</v>
+      </c>
       <c r="E4" s="8">
-        <v>100</v>
-      </c>
-      <c r="F4" s="8">
         <v>18000001</v>
       </c>
+      <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10" t="s">
-        <v>21</v>
+      <c r="M4" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>47000002</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="D5" s="8">
+        <v>70</v>
       </c>
       <c r="E5" s="8">
-        <v>70</v>
-      </c>
-      <c r="F5" s="8">
         <v>18000001</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10">
         <v>45000001</v>
       </c>
+      <c r="H5" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="I5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="J5" s="10">
+        <v>-1</v>
       </c>
       <c r="K5" s="10">
-        <v>-1</v>
-      </c>
-      <c r="L5" s="10">
         <v>51000046</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10" t="s">
-        <v>22</v>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>47000003</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="D6" s="8">
+        <v>60</v>
+      </c>
       <c r="E6" s="8">
-        <v>60</v>
-      </c>
-      <c r="F6" s="8">
         <v>18000001</v>
       </c>
-      <c r="G6" s="10">
+      <c r="F6" s="10">
         <v>5</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10" t="s">
-        <v>45</v>
-      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10" t="s">
-        <v>44</v>
+      <c r="M6" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="H4:K6 N4:N6">
-    <cfRule type="containsBlanks" dxfId="20" priority="5">
-      <formula>LEN(TRIM(H4))=0</formula>
+  <conditionalFormatting sqref="G4:J6 M4:M6">
+    <cfRule type="containsBlanks" dxfId="3" priority="5">
+      <formula>LEN(TRIM(G4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:K6">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(K4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L6">
-    <cfRule type="containsBlanks" dxfId="19" priority="3">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(L4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M6">
-    <cfRule type="containsBlanks" dxfId="18" priority="2">
-      <formula>LEN(TRIM(M4))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G6">
-    <cfRule type="containsBlanks" dxfId="17" priority="1">
-      <formula>LEN(TRIM(G4))=0</formula>
+  <conditionalFormatting sqref="F4:F6">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ConfigData/Xlsx/DungeonStory.xlsx
+++ b/ConfigData/Xlsx/DungeonStory.xlsx
@@ -182,15 +182,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>找到传说中的神兽【穷奇】，并击败它找到传说中的神兽【穷奇】，并击败它找到传说中的神兽【穷奇】，并击败它找到传说中的神兽【穷奇】，并击败它找到传说中的神兽【穷奇】，并击败它\n会出现一些狼群\nGreen|智慧属性下降1点\n额外获得一张卡牌【侏儒】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过【侏儒】的引导，找到传说中的神兽【独角兽】\nLime|会出现一些狼群\nLime|智慧属性下降1点\nLime|额外获得一张卡牌【侏儒】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>找到迷宫出口\nLime|充满了很多机关\nLime|找到出口异常艰辛</t>
+    <t>穷奇，中国神话传说中的古代四凶之一。记载于《山海经》中，指穷奇外貌像老虎，长有一双翅膀，喜欢吃人，更会从人的头部开始进食，是一头凶恶的异兽。|n|最近有村民发现该神兽在森林中出现，你的任务是|#ff6666|尝试寻找并杀死传说中的神兽【穷奇】||，使森林重新归于平静。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过【侏儒】的引导，找到传说中的神兽【独角兽】|n#66ff66|会出现一些狼群|n#66ff66|智慧属性下降1点|n#66ff66|额外获得一张卡牌【侏儒】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到迷宫出口|n#66ff66|充满了很多机关|n#66ff66|找到出口异常艰辛</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1004,34 +1004,6 @@
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1386,6 +1358,34 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1468,22 +1468,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A3:M6" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A3:M6" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
   <autoFilter ref="A3:M6"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Id" dataDxfId="16"/>
-    <tableColumn id="2" name="Name" dataDxfId="15"/>
-    <tableColumn id="3" name="Descript" dataDxfId="14"/>
-    <tableColumn id="6" name="Rate" dataDxfId="13"/>
-    <tableColumn id="9" name="DungeonId" dataDxfId="12"/>
-    <tableColumn id="12" name="NeedLevel" dataDxfId="11"/>
-    <tableColumn id="16" name="NeedGismoId" dataDxfId="10"/>
-    <tableColumn id="5" name="EventReplace" dataDxfId="9"/>
-    <tableColumn id="8" name="AttrType" dataDxfId="8"/>
-    <tableColumn id="7" name="AttrBias" dataDxfId="7"/>
-    <tableColumn id="10" name="CardId" dataDxfId="6"/>
-    <tableColumn id="11" name="BlessId" dataDxfId="5"/>
-    <tableColumn id="4" name="Image" dataDxfId="4"/>
+    <tableColumn id="1" name="Id" dataDxfId="12"/>
+    <tableColumn id="2" name="Name" dataDxfId="11"/>
+    <tableColumn id="3" name="Descript" dataDxfId="10"/>
+    <tableColumn id="6" name="Rate" dataDxfId="9"/>
+    <tableColumn id="9" name="DungeonId" dataDxfId="8"/>
+    <tableColumn id="12" name="NeedLevel" dataDxfId="7"/>
+    <tableColumn id="16" name="NeedGismoId" dataDxfId="6"/>
+    <tableColumn id="5" name="EventReplace" dataDxfId="5"/>
+    <tableColumn id="8" name="AttrType" dataDxfId="4"/>
+    <tableColumn id="7" name="AttrBias" dataDxfId="3"/>
+    <tableColumn id="10" name="CardId" dataDxfId="2"/>
+    <tableColumn id="11" name="BlessId" dataDxfId="1"/>
+    <tableColumn id="4" name="Image" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1813,7 +1813,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2053,22 +2053,22 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="G4:J6 M4:M6">
-    <cfRule type="containsBlanks" dxfId="3" priority="5">
+    <cfRule type="containsBlanks" dxfId="19" priority="5">
       <formula>LEN(TRIM(G4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="3">
       <formula>LEN(TRIM(K4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L6">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="17" priority="2">
       <formula>LEN(TRIM(L4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F6">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="16" priority="1">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConfigData/Xlsx/DungeonStory.xlsx
+++ b/ConfigData/Xlsx/DungeonStory.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -186,11 +186,14 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>通过【侏儒】的引导，找到传说中的神兽【独角兽】|n#66ff66|会出现一些狼群|n#66ff66|智慧属性下降1点|n#66ff66|额外获得一张卡牌【侏儒】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>找到迷宫出口|n#66ff66|充满了很多机关|n#66ff66|找到出口异常艰辛</t>
+    <t>slow</t>
+  </si>
+  <si>
+    <t>独角兽是一种漂亮的动物，可见于北欧的森林中。成年的独角兽是银白色的，在小时候是金黄色。独角兽的犄角，血和毛都具有很强的魔法功效。它一般避免和人类接触，很可能更愿意让女巫而不是男巫接近它，而且奔跑起来非常迅速，捕获它非常困难。|n#ff6666|通过【侏儒】的引导，找到传说中的神兽【独角兽】|n|n#cccc66|会出现一些狼群|n#cccc66|智慧属性下降1点|n#66ff66|额外获得一张起始副本卡牌【侏儒】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>本剧主要讲述大洋航空815客机坠落在太平洋的热带神秘孤岛上，48名乘客侥幸生还。面对这种荒芜人烟的小岛，生还者形形色色，国籍、人种、文化背景、个性各异，有父亲，有儿子，有朋友，也有敌人。他们既要克服恶劣的天气，在荒蛮的热带丛林中寻找食物、水源。|n#ff6666|你需要尽快找到出口，离开这里|n|n#cccc66|充满了很多机关|n#cccc66|找到出口异常艰辛|n#66cccc|开始附带诅咒【缓慢】</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -897,7 +900,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -957,6 +960,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1388,74 +1394,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1497,7 +1435,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1908,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>3</v>
@@ -1990,7 +1928,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" s="8">
         <v>70</v>
@@ -2027,7 +1965,7 @@
         <v>35</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" s="8">
         <v>60</v>
@@ -2045,7 +1983,9 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="L6" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="M6" s="10" t="s">
         <v>36</v>
       </c>

--- a/ConfigData/Xlsx/DungeonStory.xlsx
+++ b/ConfigData/Xlsx/DungeonStory.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -189,11 +189,11 @@
     <t>slow</t>
   </si>
   <si>
-    <t>独角兽是一种漂亮的动物，可见于北欧的森林中。成年的独角兽是银白色的，在小时候是金黄色。独角兽的犄角，血和毛都具有很强的魔法功效。它一般避免和人类接触，很可能更愿意让女巫而不是男巫接近它，而且奔跑起来非常迅速，捕获它非常困难。|n#ff6666|通过【侏儒】的引导，找到传说中的神兽【独角兽】|n|n#cccc66|会出现一些狼群|n#cccc66|智慧属性下降1点|n#66ff66|额外获得一张起始副本卡牌【侏儒】</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>本剧主要讲述大洋航空815客机坠落在太平洋的热带神秘孤岛上，48名乘客侥幸生还。面对这种荒芜人烟的小岛，生还者形形色色，国籍、人种、文化背景、个性各异，有父亲，有儿子，有朋友，也有敌人。他们既要克服恶劣的天气，在荒蛮的热带丛林中寻找食物、水源。|n#ff6666|你需要尽快找到出口，离开这里|n|n#cccc66|充满了很多机关|n#cccc66|找到出口异常艰辛|n#66cccc|开始附带诅咒【缓慢】</t>
+    <t>本剧主要讲述大洋航空815客机坠落在太平洋的热带神秘孤岛上，48名乘客侥幸生还。面对这种荒芜人烟的小岛，生还者形形色色，国籍、人种、文化背景、个性各异，有父亲，有儿子，有朋友，也有敌人。他们既要克服恶劣的天气，在荒蛮的热带丛林中寻找食物、水源。|n#ff6666|你需要尽快找到出口，离开这里|n|n#cccc66|★充满了很多机关|n#cccc66|★找到出口异常艰辛|n#66cccc|★开始附带诅咒【缓慢】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>独角兽是一种漂亮的动物，可见于北欧的森林中。成年的独角兽是银白色的，在小时候是金黄色。独角兽的犄角，血和毛都具有很强的魔法功效。它一般避免和人类接触，很可能更愿意让女巫而不是男巫接近它，而且奔跑起来非常迅速，捕获它非常困难。|n#ff6666|通过【侏儒】的引导，找到传说中的神兽【独角兽】|n|n#cccc66|★会出现一些狼群|n#cccc66|★智慧属性下降1点|n#66ff66|★额外获得一张起始副本卡牌【侏儒】</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1928,7 +1928,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="8">
         <v>70</v>
@@ -1965,7 +1965,7 @@
         <v>35</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="8">
         <v>60</v>

--- a/ConfigData/Xlsx/DungeonStory.xlsx
+++ b/ConfigData/Xlsx/DungeonStory.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -194,6 +194,18 @@
   </si>
   <si>
     <t>独角兽是一种漂亮的动物，可见于北欧的森林中。成年的独角兽是银白色的，在小时候是金黄色。独角兽的犄角，血和毛都具有很强的魔法功效。它一般避免和人类接触，很可能更愿意让女巫而不是男巫接近它，而且奔跑起来非常迅速，捕获它非常困难。|n#ff6666|通过【侏儒】的引导，找到传说中的神兽【独角兽】|n|n#cccc66|★会出现一些狼群|n#cccc66|★智慧属性下降1点|n#66ff66|★额外获得一张起始副本卡牌【侏儒】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>|拜他的桀骜不羁和怒气所赐，泰达米尔在冰原上披荆斩棘，与弗雷尔卓德上杰出的战士较量以精通战斗的艺术。这个暴怒的野蛮人想向那个摧毁他部族的人复仇以及击败所有阻挡他和他进行最后复仇的人们。你可以|#ff6666|尝试寻找并击败他。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰达米尔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wildking</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1406,8 +1418,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A3:M6" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
-  <autoFilter ref="A3:M6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A3:M7" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
+  <autoFilter ref="A3:M7"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Id" dataDxfId="12"/>
     <tableColumn id="2" name="Name" dataDxfId="11"/>
@@ -1748,10 +1760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1990,24 +2002,51 @@
         <v>36</v>
       </c>
     </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>47000020</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="8">
+        <v>100</v>
+      </c>
+      <c r="E7" s="8">
+        <v>18000201</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="G4:J6 M4:M6">
+  <conditionalFormatting sqref="G4:J7 M4:M7">
     <cfRule type="containsBlanks" dxfId="19" priority="5">
       <formula>LEN(TRIM(G4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K6">
+  <conditionalFormatting sqref="K4:K7">
     <cfRule type="containsBlanks" dxfId="18" priority="3">
       <formula>LEN(TRIM(K4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L6">
+  <conditionalFormatting sqref="L4:L7">
     <cfRule type="containsBlanks" dxfId="17" priority="2">
       <formula>LEN(TRIM(L4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F6">
+  <conditionalFormatting sqref="F4:F7">
     <cfRule type="containsBlanks" dxfId="16" priority="1">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>

--- a/ConfigData/Xlsx/DungeonStory.xlsx
+++ b/ConfigData/Xlsx/DungeonStory.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TOMClassic\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -206,6 +206,26 @@
   </si>
   <si>
     <t>wildking</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>远古之路</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventAdd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>从冰冻苔原往前走,在亚瑞特山脚下，就是传说中的远古之路。再往前就是亚瑞特山脉颠峰，在那里有3个古代勇士守护者通往远古遗迹的道路。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -912,7 +932,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -974,6 +994,9 @@
       <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1021,7 +1044,54 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1376,34 +1446,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1418,22 +1460,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A3:M7" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
-  <autoFilter ref="A3:M7"/>
-  <tableColumns count="13">
-    <tableColumn id="1" name="Id" dataDxfId="12"/>
-    <tableColumn id="2" name="Name" dataDxfId="11"/>
-    <tableColumn id="3" name="Descript" dataDxfId="10"/>
-    <tableColumn id="6" name="Rate" dataDxfId="9"/>
-    <tableColumn id="9" name="DungeonId" dataDxfId="8"/>
-    <tableColumn id="12" name="NeedLevel" dataDxfId="7"/>
-    <tableColumn id="16" name="NeedGismoId" dataDxfId="6"/>
-    <tableColumn id="5" name="EventReplace" dataDxfId="5"/>
-    <tableColumn id="8" name="AttrType" dataDxfId="4"/>
-    <tableColumn id="7" name="AttrBias" dataDxfId="3"/>
-    <tableColumn id="10" name="CardId" dataDxfId="2"/>
-    <tableColumn id="11" name="BlessId" dataDxfId="1"/>
-    <tableColumn id="4" name="Image" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A3:N8" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
+  <autoFilter ref="A3:N8"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="Id" dataDxfId="17"/>
+    <tableColumn id="2" name="Name" dataDxfId="16"/>
+    <tableColumn id="3" name="Descript" dataDxfId="15"/>
+    <tableColumn id="6" name="Rate" dataDxfId="14"/>
+    <tableColumn id="9" name="DungeonId" dataDxfId="13"/>
+    <tableColumn id="12" name="NeedLevel" dataDxfId="12"/>
+    <tableColumn id="16" name="NeedGismoId" dataDxfId="11"/>
+    <tableColumn id="13" name="EventAdd" dataDxfId="0"/>
+    <tableColumn id="5" name="EventReplace" dataDxfId="10"/>
+    <tableColumn id="8" name="AttrType" dataDxfId="9"/>
+    <tableColumn id="7" name="AttrBias" dataDxfId="8"/>
+    <tableColumn id="10" name="CardId" dataDxfId="7"/>
+    <tableColumn id="11" name="BlessId" dataDxfId="6"/>
+    <tableColumn id="4" name="Image" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1760,10 +1803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1775,14 +1818,15 @@
     <col min="5" max="5" width="9.5" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" style="3" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="26.125" style="3" customWidth="1"/>
-    <col min="9" max="10" width="5.875" style="3" customWidth="1"/>
-    <col min="11" max="12" width="9.625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="3"/>
+    <col min="8" max="8" width="13.875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="26.125" style="3" customWidth="1"/>
+    <col min="10" max="11" width="5.875" style="3" customWidth="1"/>
+    <col min="12" max="13" width="9.625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1805,25 +1849,28 @@
         <v>17</v>
       </c>
       <c r="H1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1846,25 +1893,28 @@
         <v>0</v>
       </c>
       <c r="H2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="J2" s="17" t="s">
         <v>3</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>0</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1887,25 +1937,28 @@
         <v>40</v>
       </c>
       <c r="H3" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="J3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="K3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="L3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="M3" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>47000001</v>
       </c>
@@ -1928,11 +1981,12 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="10"/>
+      <c r="N4" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>47000002</v>
       </c>
@@ -1952,24 +2006,25 @@
       <c r="G5" s="10">
         <v>45000001</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="10"/>
+      <c r="I5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="10">
+      <c r="K5" s="10">
         <v>-1</v>
       </c>
-      <c r="K5" s="10">
+      <c r="L5" s="10">
         <v>51000046</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="10"/>
+      <c r="N5" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>47000003</v>
       </c>
@@ -1989,20 +2044,21 @@
         <v>5</v>
       </c>
       <c r="G6" s="10"/>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="10"/>
+      <c r="I6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="10"/>
+      <c r="M6" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="N6" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>47000020</v>
       </c>
@@ -2024,30 +2080,57 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="10" t="s">
+      <c r="L7" s="10"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="10" t="s">
         <v>47</v>
       </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
+        <v>47000021</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="8">
+        <v>100</v>
+      </c>
+      <c r="E8" s="8">
+        <v>18000201</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="G4:J7 M4:M7">
-    <cfRule type="containsBlanks" dxfId="19" priority="5">
+  <conditionalFormatting sqref="G4:K8 N4:N8">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
       <formula>LEN(TRIM(G4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K7">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
-      <formula>LEN(TRIM(K4))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L7">
-    <cfRule type="containsBlanks" dxfId="17" priority="2">
+  <conditionalFormatting sqref="L4:L8">
+    <cfRule type="containsBlanks" dxfId="3" priority="3">
       <formula>LEN(TRIM(L4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F7">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+  <conditionalFormatting sqref="M4:M8">
+    <cfRule type="containsBlanks" dxfId="2" priority="2">
+      <formula>LEN(TRIM(M4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F8">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConfigData/Xlsx/DungeonStory.xlsx
+++ b/ConfigData/Xlsx/DungeonStory.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -226,6 +226,18 @@
   </si>
   <si>
     <t>string[]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossmanwang=bosstalic</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ancientway</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossmadawc;bosskorlic</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1806,7 +1818,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2104,13 +2116,19 @@
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
+      <c r="H8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>53</v>
+      </c>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
+      <c r="N8" s="21" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/ConfigData/Xlsx/DungeonStory.xlsx
+++ b/ConfigData/Xlsx/DungeonStory.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TOMClassic\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -221,23 +221,27 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>从冰冻苔原往前走,在亚瑞特山脚下，就是传说中的远古之路。再往前就是亚瑞特山脉颠峰，在那里有3个古代勇士守护者通往远古遗迹的道路。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>string[]</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>bossmanwang=bosstalic</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>ancientway</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>bossmadawc;bosskorlic</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossmanwang=bosstalic,potteryroom=suntemple,trapspear=trapspearwall,stonedoor2=snowhill</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fightfail</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>从冰冻苔原往前走,在亚瑞特山脚下，就是传说中的远古之路。再往前就是亚瑞特山脉颠峰，在那里有3个古代勇士守护者通往远古遗迹的道路。|n#ff6666|你需要激活机关，并打败3个野蛮人的灵魂|n|n#cccc66|★关卡中事件难度更大|n#66cccc|★开始附带诅咒【胆小鬼】</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -944,7 +948,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1009,6 +1013,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1075,34 +1082,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1458,6 +1437,34 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1472,23 +1479,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A3:N8" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A3:N8" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="A3:N8"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="17"/>
-    <tableColumn id="2" name="Name" dataDxfId="16"/>
-    <tableColumn id="3" name="Descript" dataDxfId="15"/>
-    <tableColumn id="6" name="Rate" dataDxfId="14"/>
-    <tableColumn id="9" name="DungeonId" dataDxfId="13"/>
-    <tableColumn id="12" name="NeedLevel" dataDxfId="12"/>
-    <tableColumn id="16" name="NeedGismoId" dataDxfId="11"/>
-    <tableColumn id="13" name="EventAdd" dataDxfId="0"/>
-    <tableColumn id="5" name="EventReplace" dataDxfId="10"/>
-    <tableColumn id="8" name="AttrType" dataDxfId="9"/>
-    <tableColumn id="7" name="AttrBias" dataDxfId="8"/>
-    <tableColumn id="10" name="CardId" dataDxfId="7"/>
-    <tableColumn id="11" name="BlessId" dataDxfId="6"/>
-    <tableColumn id="4" name="Image" dataDxfId="5"/>
+    <tableColumn id="1" name="Id" dataDxfId="13"/>
+    <tableColumn id="2" name="Name" dataDxfId="12"/>
+    <tableColumn id="3" name="Descript" dataDxfId="11"/>
+    <tableColumn id="6" name="Rate" dataDxfId="10"/>
+    <tableColumn id="9" name="DungeonId" dataDxfId="9"/>
+    <tableColumn id="12" name="NeedLevel" dataDxfId="8"/>
+    <tableColumn id="16" name="NeedGismoId" dataDxfId="7"/>
+    <tableColumn id="13" name="EventAdd" dataDxfId="6"/>
+    <tableColumn id="5" name="EventReplace" dataDxfId="5"/>
+    <tableColumn id="8" name="AttrType" dataDxfId="4"/>
+    <tableColumn id="7" name="AttrBias" dataDxfId="3"/>
+    <tableColumn id="10" name="CardId" dataDxfId="2"/>
+    <tableColumn id="11" name="BlessId" dataDxfId="1"/>
+    <tableColumn id="4" name="Image" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1818,7 +1825,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1905,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>23</v>
@@ -2106,7 +2113,7 @@
         <v>48</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D8" s="8">
         <v>100</v>
@@ -2117,38 +2124,40 @@
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
+      <c r="M8" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="N8" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="G4:K8 N4:N8">
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
+    <cfRule type="containsBlanks" dxfId="20" priority="5">
       <formula>LEN(TRIM(G4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L8">
-    <cfRule type="containsBlanks" dxfId="3" priority="3">
+    <cfRule type="containsBlanks" dxfId="19" priority="3">
       <formula>LEN(TRIM(L4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M8">
-    <cfRule type="containsBlanks" dxfId="2" priority="2">
+    <cfRule type="containsBlanks" dxfId="18" priority="2">
       <formula>LEN(TRIM(M4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F8">
-    <cfRule type="containsBlanks" dxfId="1" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="1">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConfigData/Xlsx/DungeonStory.xlsx
+++ b/ConfigData/Xlsx/DungeonStory.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -118,10 +118,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>bossqiongqi=bossunicorn,manflower=wolfnest</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>主鉴定</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -166,10 +162,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>bossqiongqi=forestexit,trees=rosemaryfield,river=poppyfield,manflower=trapspring,cliff=trappoison</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>NeedLevel</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -233,15 +225,23 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>bossmanwang=bosstalic,potteryroom=suntemple,trapspear=trapspearwall,stonedoor2=snowhill</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>fightfail</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>从冰冻苔原往前走,在亚瑞特山脚下，就是传说中的远古之路。再往前就是亚瑞特山脉颠峰，在那里有3个古代勇士守护者通往远古遗迹的道路。|n#ff6666|你需要激活机关，并打败3个野蛮人的灵魂|n|n#cccc66|★关卡中事件难度更大|n#66cccc|★开始附带诅咒【胆小鬼】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossqiongqi=bossunicorn,emanflower=fwolfnest</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossqiongqi=forestexit,ftrees=rosemaryfield,river=poppyfield,emanflower=trapspring,cliff=trappoison</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossmanwang=bosstalic,potteryroom=esuntemple,trapspear=trapspearwall,stonedoor2=snowhill</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1467,6 +1467,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1509,7 +1577,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1825,7 +1893,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1862,28 +1930,28 @@
         <v>6</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="19" t="s">
-        <v>27</v>
-      </c>
       <c r="L1" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>19</v>
@@ -1912,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>23</v>
@@ -1950,28 +2018,28 @@
         <v>7</v>
       </c>
       <c r="F3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="H3" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>24</v>
       </c>
       <c r="J3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="18" t="s">
-        <v>30</v>
-      </c>
       <c r="L3" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>16</v>
@@ -1985,7 +2053,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" s="8">
         <v>100</v>
@@ -2013,7 +2081,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" s="8">
         <v>70</v>
@@ -2027,10 +2095,10 @@
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="10">
         <v>-1</v>
@@ -2048,10 +2116,10 @@
         <v>47000003</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" s="8">
         <v>60</v>
@@ -2065,16 +2133,16 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -2082,10 +2150,10 @@
         <v>47000020</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="8">
         <v>100</v>
@@ -2102,7 +2170,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="20"/>
       <c r="N7" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -2110,10 +2178,10 @@
         <v>47000021</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D8" s="8">
         <v>100</v>
@@ -2124,19 +2192,19 @@
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
